--- a/academias/Electricidad - Estadisticos 2020.xlsx
+++ b/academias/Electricidad - Estadisticos 2020.xlsx
@@ -485,6 +485,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1271,6 +1272,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1994,6 +1996,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Electricidad - Estadisticos 2020.xlsx
+++ b/academias/Electricidad - Estadisticos 2020.xlsx
@@ -642,25 +642,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -782,25 +782,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H9">
-        <v>35.9</v>
+        <v>28.21</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>35.9</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1202,25 +1202,25 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>22.22</v>
       </c>
       <c r="I21">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1324,22 +1324,25 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>35.9</v>
+      </c>
+      <c r="I2">
+        <v>9.9</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1356,22 +1359,25 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>34.29</v>
+      </c>
+      <c r="I3">
+        <v>9.6</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1388,22 +1394,25 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>34.29</v>
+      </c>
+      <c r="I4">
+        <v>9.699999999999999</v>
       </c>
       <c r="J4">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1420,22 +1429,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>9.4</v>
       </c>
       <c r="J5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1740,22 +1752,25 @@
         <v>39</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>66.67</v>
+      </c>
+      <c r="I15">
+        <v>9.6</v>
       </c>
       <c r="J15">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1772,22 +1787,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>30.77</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>69.23</v>
+      </c>
+      <c r="I16">
+        <v>9.6</v>
       </c>
       <c r="J16">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1804,22 +1822,25 @@
         <v>37</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>91.89</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>91.89</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1932,22 +1953,25 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>47.22</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>52.78</v>
+      </c>
+      <c r="I21">
+        <v>9.699999999999999</v>
       </c>
       <c r="J21">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2060,7 +2084,7 @@
         <v>17.95</v>
       </c>
       <c r="I2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -2095,7 +2119,7 @@
         <v>11.43</v>
       </c>
       <c r="I3">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -2130,7 +2154,7 @@
         <v>11.43</v>
       </c>
       <c r="I4">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -2153,25 +2177,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>9.5</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2293,25 +2317,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H9">
-        <v>35.9</v>
+        <v>28.21</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>35.9</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2515,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2550,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2585,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2713,25 +2737,25 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>77.78</v>
+      </c>
+      <c r="H21">
+        <v>22.22</v>
+      </c>
+      <c r="I21">
         <v>9</v>
       </c>
-      <c r="G21">
-        <v>75</v>
-      </c>
-      <c r="H21">
-        <v>25</v>
-      </c>
-      <c r="I21">
-        <v>8.699999999999999</v>
-      </c>
       <c r="J21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="22" spans="1:11">

--- a/academias/Electricidad - Estadisticos 2020.xlsx
+++ b/academias/Electricidad - Estadisticos 2020.xlsx
@@ -537,25 +537,25 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>82.05</v>
+        <v>84.62</v>
       </c>
       <c r="H2">
-        <v>17.95</v>
+        <v>15.38</v>
       </c>
       <c r="I2">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>17.95</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -782,25 +782,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H9">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
       <c r="I9">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1097,25 +1097,25 @@
         <v>37</v>
       </c>
       <c r="E18">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>64.86</v>
+        <v>78.38</v>
       </c>
       <c r="H18">
-        <v>35.14</v>
+        <v>21.62</v>
       </c>
       <c r="I18">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>35.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1132,25 +1132,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>38.89</v>
+        <v>44.44</v>
       </c>
       <c r="H19">
-        <v>61.11</v>
+        <v>55.56</v>
       </c>
       <c r="I19">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="J19">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>61.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1167,25 +1167,25 @@
         <v>29</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>34.48</v>
+        <v>44.83</v>
       </c>
       <c r="H20">
-        <v>65.52</v>
+        <v>55.17</v>
       </c>
       <c r="I20">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>65.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1214,13 +1214,13 @@
         <v>22.22</v>
       </c>
       <c r="I21">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1237,25 +1237,25 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>68.18000000000001</v>
+        <v>72.73</v>
       </c>
       <c r="H22">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
       <c r="I22">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1324,25 +1324,25 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
-        <v>35.9</v>
+        <v>33.33</v>
       </c>
       <c r="I2">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>35.9</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1359,25 +1359,25 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>65.70999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="H3">
-        <v>34.29</v>
+        <v>22.86</v>
       </c>
       <c r="I3">
         <v>9.6</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>34.29</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1394,25 +1394,25 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>65.70999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="H4">
-        <v>34.29</v>
+        <v>22.86</v>
       </c>
       <c r="I4">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>34.29</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1560,22 +1560,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>56.41</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>43.59</v>
+      </c>
+      <c r="I9">
+        <v>6.9</v>
       </c>
       <c r="J9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1752,25 +1755,25 @@
         <v>39</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>33.33</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1787,25 +1790,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>30.77</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>69.23</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J16">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>69.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1822,25 +1825,25 @@
         <v>37</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>8.109999999999999</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>91.89</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="J17">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>91.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1857,22 +1860,25 @@
         <v>37</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>51.35</v>
+      </c>
+      <c r="I18">
+        <v>8.300000000000001</v>
       </c>
       <c r="J18">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1889,22 +1895,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>19.44</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>80.56</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1921,22 +1930,25 @@
         <v>29</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>27.59</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>72.41</v>
+      </c>
+      <c r="I20">
+        <v>8.5</v>
       </c>
       <c r="J20">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>72.41</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1953,25 +1965,25 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>47.22</v>
+        <v>75</v>
       </c>
       <c r="H21">
-        <v>52.78</v>
+        <v>25</v>
       </c>
       <c r="I21">
-        <v>9.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="J21">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K21">
-        <v>52.78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1988,22 +2000,25 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>45.45</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>54.55</v>
+      </c>
+      <c r="I22">
+        <v>8.9</v>
       </c>
       <c r="J22">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>54.55</v>
       </c>
     </row>
   </sheetData>
@@ -2072,25 +2087,25 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>82.05</v>
+        <v>84.62</v>
       </c>
       <c r="H2">
-        <v>17.95</v>
+        <v>15.38</v>
       </c>
       <c r="I2">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>17.95</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2154,7 +2169,7 @@
         <v>11.43</v>
       </c>
       <c r="I4">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -2317,25 +2332,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H9">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
       <c r="I9">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2539,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2574,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2609,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2632,25 +2647,25 @@
         <v>37</v>
       </c>
       <c r="E18">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>64.86</v>
+        <v>78.38</v>
       </c>
       <c r="H18">
-        <v>35.14</v>
+        <v>21.62</v>
       </c>
       <c r="I18">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>35.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2667,25 +2682,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>38.89</v>
+        <v>44.44</v>
       </c>
       <c r="H19">
-        <v>61.11</v>
+        <v>55.56</v>
       </c>
       <c r="I19">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="J19">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>61.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2702,25 +2717,25 @@
         <v>29</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>34.48</v>
+        <v>48.28</v>
       </c>
       <c r="H20">
-        <v>65.52</v>
+        <v>51.72</v>
       </c>
       <c r="I20">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>65.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2737,25 +2752,25 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>77.78</v>
+        <v>83.33</v>
       </c>
       <c r="H21">
-        <v>22.22</v>
+        <v>16.67</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2772,25 +2787,25 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>68.18000000000001</v>
+        <v>72.73</v>
       </c>
       <c r="H22">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
       <c r="I22">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Electricidad - Estadisticos 2020.xlsx
+++ b/academias/Electricidad - Estadisticos 2020.xlsx
@@ -677,25 +677,25 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>51.72</v>
+        <v>68.97</v>
       </c>
       <c r="H6">
-        <v>48.28</v>
+        <v>31.03</v>
       </c>
       <c r="I6">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>48.28</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +712,25 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>58.62</v>
+        <v>72.41</v>
       </c>
       <c r="H7">
-        <v>41.38</v>
+        <v>27.59</v>
       </c>
       <c r="I7">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>41.38</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,25 +747,25 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>68.18000000000001</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="H8">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
       <c r="I8">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -817,25 +817,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>76.92</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>23.08</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -852,25 +852,25 @@
         <v>37</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>64.86</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>35.14</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="J11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>35.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -887,25 +887,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>36.11</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>63.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -922,25 +922,25 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>27.59</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>72.41</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>72.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -957,25 +957,25 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>20.69</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>79.31</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>79.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1464,22 +1464,25 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>68.97</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>31.03</v>
+      </c>
+      <c r="I6">
+        <v>8.4</v>
       </c>
       <c r="J6">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1496,22 +1499,25 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>65.52</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>34.48</v>
+      </c>
+      <c r="I7">
+        <v>7.6</v>
       </c>
       <c r="J7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1528,22 +1534,25 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>77.27</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>22.73</v>
+      </c>
+      <c r="I8">
+        <v>7.4</v>
       </c>
       <c r="J8">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1560,25 +1569,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="H9">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
       <c r="I9">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1595,22 +1604,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1627,22 +1639,25 @@
         <v>37</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>7.5</v>
       </c>
       <c r="J11">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1659,22 +1674,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>6.6</v>
       </c>
       <c r="J12">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1691,22 +1709,25 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6.6</v>
       </c>
       <c r="J13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1723,22 +1744,25 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6.4</v>
       </c>
       <c r="J14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1860,25 +1884,25 @@
         <v>37</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>48.65</v>
+        <v>56.76</v>
       </c>
       <c r="H18">
-        <v>51.35</v>
+        <v>43.24</v>
       </c>
       <c r="I18">
         <v>8.300000000000001</v>
       </c>
       <c r="J18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K18">
-        <v>51.35</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1895,25 +1919,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19">
-        <v>19.44</v>
+        <v>22.22</v>
       </c>
       <c r="H19">
-        <v>80.56</v>
+        <v>77.78</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="J19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>80.56</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2000,25 +2024,25 @@
         <v>22</v>
       </c>
       <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
         <v>10</v>
       </c>
-      <c r="F22">
-        <v>12</v>
-      </c>
       <c r="G22">
+        <v>54.55</v>
+      </c>
+      <c r="H22">
         <v>45.45</v>
       </c>
-      <c r="H22">
-        <v>54.55</v>
-      </c>
       <c r="I22">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
   </sheetData>
@@ -2227,25 +2251,25 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>51.72</v>
+        <v>68.97</v>
       </c>
       <c r="H6">
-        <v>48.28</v>
+        <v>31.03</v>
       </c>
       <c r="I6">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>48.28</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2262,25 +2286,25 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>58.62</v>
+        <v>72.41</v>
       </c>
       <c r="H7">
-        <v>41.38</v>
+        <v>27.59</v>
       </c>
       <c r="I7">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>41.38</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2297,25 +2321,25 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>68.18000000000001</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="H8">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
       <c r="I8">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2367,25 +2391,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>76.92</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>23.08</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2402,25 +2426,25 @@
         <v>37</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>64.86</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>35.14</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>35.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2437,25 +2461,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>36.11</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>63.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2472,25 +2496,25 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>27.59</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>72.41</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>72.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2507,25 +2531,25 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>20.69</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>79.31</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>79.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">

--- a/academias/Electricidad - Estadisticos 2020.xlsx
+++ b/academias/Electricidad - Estadisticos 2020.xlsx
@@ -60,7 +60,7 @@
     <t>Cruz Alejo José Armando</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>Silva Villegas Mario</t>
@@ -69,7 +69,7 @@
     <t>Torres Sánchez José Luis</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
+    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Zarate Amezcua Eladio Jorge</t>
